--- a/Public/report/excel/client_ywl_20160101_20160310.xlsx
+++ b/Public/report/excel/client_ywl_20160101_20160310.xlsx
@@ -386,7 +386,7 @@
     <t xml:space="preserve"> 08128</t>
   </si>
   <si>
-    <t>公司金融部</t>
+    <t>公司业务部</t>
   </si>
   <si>
     <t>广东德力光电有限公司</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve"> 08132</t>
   </si>
   <si>
-    <t>公司三部</t>
+    <t>机构业务部</t>
   </si>
   <si>
     <t>江门市溢峰化工原料有限公司</t>
@@ -3124,10 +3124,10 @@
         <v>144</v>
       </c>
       <c r="E72" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F72" s="2">
-        <v>316364.59</v>
+        <v>349564.59</v>
       </c>
       <c r="G72" s="1">
         <v>9</v>
